--- a/generated_docs/WR_89792541_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89792541_WeekEnding_072725.xlsx
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>Joel Gonzalez</t>
+          <t>Oscar Aleman</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/25/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
